--- a/Data/Bilançolar/BNTAS.xlsx
+++ b/Data/Bilançolar/BNTAS.xlsx
@@ -7990,7 +7990,7 @@
         <v>93430519</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>25359299</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -8335,7 +8335,7 @@
         <v>66216253</v>
       </c>
       <c r="C69" t="n">
-        <v>100633274</v>
+        <v>75273975</v>
       </c>
       <c r="D69" t="n">
         <v>101493298</v>
@@ -11555,7 +11555,7 @@
         <v>-301514</v>
       </c>
       <c r="C97" t="n">
-        <v>-56907</v>
+        <v>-56908</v>
       </c>
       <c r="D97" t="n">
         <v>-564552</v>
@@ -11785,7 +11785,7 @@
         <v>60669153</v>
       </c>
       <c r="C99" t="n">
-        <v>30378272</v>
+        <v>30378271</v>
       </c>
       <c r="D99" t="n">
         <v>65803048</v>
@@ -12360,7 +12360,7 @@
         <v>59633057</v>
       </c>
       <c r="C104" t="n">
-        <v>30001501</v>
+        <v>30001500</v>
       </c>
       <c r="D104" t="n">
         <v>64598187</v>
@@ -12705,7 +12705,7 @@
         <v>59633057</v>
       </c>
       <c r="C107" t="n">
-        <v>30001501</v>
+        <v>30001500</v>
       </c>
       <c r="D107" t="n">
         <v>64598187</v>
@@ -13050,7 +13050,7 @@
         <v>59633057</v>
       </c>
       <c r="C110" t="n">
-        <v>30001501</v>
+        <v>30001500</v>
       </c>
       <c r="D110" t="n">
         <v>64598187</v>
@@ -13855,7 +13855,7 @@
         <v>-301514</v>
       </c>
       <c r="C117" t="n">
-        <v>-56907</v>
+        <v>-56908</v>
       </c>
       <c r="D117" t="n">
         <v>-564552</v>
